--- a/finder/document/report_inventory/report_inv.xlsx
+++ b/finder/document/report_inventory/report_inv.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,335 +490,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>user1</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Б00066626</t>
+          <t>C00015510</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Кронштейн БИДФ.886410.00.001</t>
+          <t>Плетенка ПМЛ-16х24.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>шт</t>
+          <t>кг</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>12.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" s="2" t="n">
-        <v>45534.48295003873</v>
+        <v>45537.53527177739</v>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>Сошлось</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>user1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Б00057018</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Труба ПА 6 гофр.DN7мм ПВ-0 Dвн 6,8мм Dнар 10,1 мм цвет темно-серый без протяжки  PA600710F0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>м</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>п65</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>коробка</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>45534.48366682943</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Сошлось</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>user2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Б00057018</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Труба ПА 6 гофр.DN7мм ПВ-0 Dвн 6,8мм Dнар 10,1 мм цвет темно-серый без протяжки  PA600710F0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>м</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>116.95</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" s="2" t="n">
-        <v>45534.48430145153</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Сошлось</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>user1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Б00078118</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Винт пот вн шг нерж 6*20 DIN 7991 A4</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>р65</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" s="2" t="n">
-        <v>45534.48520432022</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Сошлось</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>user2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Б00078118</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Винт пот вн шг нерж 6*20 DIN 7991 A4</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>22.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" s="2" t="n">
-        <v>45534.48575219658</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Сошлось</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>guest1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Б00064838</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Бандажи (100шт.) ТК  9/3</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Белые</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>45534.71352503213</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Сошлось</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>user1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Б00064838</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Бандажи (100шт.) ТК  9/3</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>черные</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>45534.71447289199</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Сошлось</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Б00064838</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Бандажи (100шт.) ТК  9/3</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" s="2" t="n">
-        <v>45534.7153251864</v>
-      </c>
-      <c r="J9" t="inlineStr">
         <is>
           <t>Сошлось</t>
         </is>

--- a/finder/document/report_inventory/report_inv.xlsx
+++ b/finder/document/report_inventory/report_inv.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,35 +490,195 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>user1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C00015510</t>
+          <t xml:space="preserve">Б00041946  </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Плетенка ПМЛ-16х24.0</t>
+          <t>Веревка плт ПА-6,0мм-16пр-с/с-краш</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>кг</t>
+          <t>м</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12.80</t>
+          <t>15.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" s="2" t="n">
-        <v>45537.53527177739</v>
+        <v>45539.6809443629</v>
       </c>
       <c r="J2" t="inlineStr">
+        <is>
+          <t>Сошлось</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>user1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Б00041946  </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Веревка плт ПА-6,0мм-16пр-с/с-краш</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>м</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" s="2" t="n">
+        <v>45539.68105535132</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Сошлось</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>user1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Б00041946  </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Веревка плт ПА-6,0мм-16пр-с/с-краш</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>м</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" s="2" t="n">
+        <v>45539.68114932519</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Сошлось</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>user1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Б00075249  </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Винт М4х8 А4  ISO10642</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" s="2" t="n">
+        <v>45540.34844409794</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Сошлось</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>user1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Б00075249  </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Винт М4х8 А4  ISO10642</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>шт</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" s="2" t="n">
+        <v>45540.34848388188</v>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>Сошлось</t>
         </is>

--- a/finder/document/report_inventory/report_inv.xlsx
+++ b/finder/document/report_inventory/report_inv.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,33 +490,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>user1</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Б00041946  </t>
+          <t>C00039997</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Веревка плт ПА-6,0мм-16пр-с/с-краш</t>
+          <t>Плетенка ПМЛ 16х24,0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>м</t>
+          <t>кг</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>15.60</t>
+          <t>65.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" s="2" t="n">
-        <v>45539.6809443629</v>
+        <v>45601.95222889914</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -530,17 +530,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>user1</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Б00041946  </t>
+          <t>C00042856</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Веревка плт ПА-6,0мм-16пр-с/с-краш</t>
+          <t>Провод МГТФ 1,0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -550,13 +550,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>20.30</t>
+          <t>3359.75</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" s="2" t="n">
-        <v>45539.68105535132</v>
+        <v>45601.9618535708</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -570,17 +570,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>user1</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Б00041946  </t>
+          <t xml:space="preserve">Б00057248  </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Веревка плт ПА-6,0мм-16пр-с/с-краш</t>
+          <t>Провода и кабели бортовые МГТФ 1,0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,13 +590,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>79.10</t>
+          <t>112.40</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" s="2" t="n">
-        <v>45539.68114932519</v>
+        <v>45601.96263715047</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -610,33 +610,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>user1</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Б00075249  </t>
+          <t>C00030270</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Винт М4х8 А4  ISO10642</t>
+          <t>Провод МГТФ 0,35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>шт</t>
+          <t>м</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>14970.01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" s="2" t="n">
-        <v>45540.34844409794</v>
+        <v>45601.97720668958</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -650,35 +650,115 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>user1</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Б00075249  </t>
+          <t xml:space="preserve">Б00003245  </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Винт М4х8 А4  ISO10642</t>
+          <t>Провод МГТФ 0,75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>шт</t>
+          <t>м</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>200.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" s="2" t="n">
-        <v>45540.34848388188</v>
+        <v>45601.97787662052</v>
       </c>
       <c r="J6" t="inlineStr">
+        <is>
+          <t>Сошлось</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Б00003245  </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Провод МГТФ 0,75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>м</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" s="2" t="n">
+        <v>45601.9817693654</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Сошлось</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Б00003245  </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Провод МГТФ 0,75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>м</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" s="2" t="n">
+        <v>45601.9818359381</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>Сошлось</t>
         </is>
